--- a/data/coded_segments/md_1_1.xlsx
+++ b/data/coded_segments/md_1_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A55D6255-7ECE-A24A-9E58-245A81FBAA73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6859F686-36FE-204E-8B2E-411087A51441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4283" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4283" uniqueCount="1037">
   <si>
     <t>Color</t>
   </si>
@@ -2298,15 +2298,6 @@
     <t>fevers</t>
   </si>
   <si>
-    <t>1: 1401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drug-resistant tuberculosis </t>
-  </si>
-  <si>
-    <t>5/23/18 16:02:00</t>
-  </si>
-  <si>
     <t>17942</t>
   </si>
   <si>
@@ -3180,6 +3171,18 @@
   </si>
   <si>
     <t>Sept</t>
+  </si>
+  <si>
+    <t>1: 2052</t>
+  </si>
+  <si>
+    <t>1: 2077</t>
+  </si>
+  <si>
+    <t>Mycobacterium tuberculosis</t>
+  </si>
+  <si>
+    <t>11/19/18 13:48:00</t>
   </si>
 </sst>
 </file>
@@ -15314,34 +15317,34 @@
         <v>14</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>685</v>
+        <v>745</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>361</v>
+        <v>746</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H285" s="3">
         <v>0</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="J285" s="3">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="K285" s="4">
-        <v>5.7173000000000002E-2</v>
+        <v>8.7969999999999993E-3</v>
       </c>
       <c r="L285" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M285" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="286" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15355,34 +15358,34 @@
         <v>14</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F286" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="H286" s="3">
+        <v>0</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="J286" s="3">
+        <v>4</v>
+      </c>
+      <c r="K286" s="4">
+        <v>1.7595E-2</v>
+      </c>
+      <c r="L286" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M286" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="G286" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="H286" s="3">
-        <v>0</v>
-      </c>
-      <c r="I286" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="J286" s="3">
-        <v>2</v>
-      </c>
-      <c r="K286" s="4">
-        <v>8.7969999999999993E-3</v>
-      </c>
-      <c r="L286" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M286" s="1" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="287" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15396,34 +15399,34 @@
         <v>14</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="F287" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G287" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="G287" s="1" t="s">
+      <c r="H287" s="3">
+        <v>0</v>
+      </c>
+      <c r="I287" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="H287" s="3">
-        <v>0</v>
-      </c>
-      <c r="I287" s="2" t="s">
-        <v>736</v>
-      </c>
       <c r="J287" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K287" s="4">
-        <v>1.7595E-2</v>
+        <v>8.3574999999999997E-2</v>
       </c>
       <c r="L287" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M287" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="288" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15437,10 +15440,10 @@
         <v>14</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>755</v>
@@ -15455,16 +15458,16 @@
         <v>757</v>
       </c>
       <c r="J288" s="3">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="K288" s="4">
-        <v>8.3574999999999997E-2</v>
+        <v>3.0790999999999999E-2</v>
       </c>
       <c r="L288" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M288" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="289" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15478,34 +15481,34 @@
         <v>14</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>137</v>
+        <v>355</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>758</v>
       </c>
       <c r="G289" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="H289" s="3">
+        <v>0</v>
+      </c>
+      <c r="I289" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="H289" s="3">
-        <v>0</v>
-      </c>
-      <c r="I289" s="2" t="s">
-        <v>760</v>
-      </c>
       <c r="J289" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K289" s="4">
-        <v>3.0790999999999999E-2</v>
+        <v>4.3990000000000001E-3</v>
       </c>
       <c r="L289" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M289" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="290" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15519,13 +15522,13 @@
         <v>14</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>355</v>
+        <v>142</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G290" s="1" t="s">
         <v>761</v>
@@ -15537,16 +15540,16 @@
         <v>762</v>
       </c>
       <c r="J290" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K290" s="4">
-        <v>4.3990000000000001E-3</v>
+        <v>1.7595E-2</v>
       </c>
       <c r="L290" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M290" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15560,34 +15563,34 @@
         <v>14</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>142</v>
+        <v>351</v>
       </c>
       <c r="F291" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G291" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="G291" s="1" t="s">
+      <c r="H291" s="3">
+        <v>0</v>
+      </c>
+      <c r="I291" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="H291" s="3">
-        <v>0</v>
-      </c>
-      <c r="I291" s="2" t="s">
-        <v>765</v>
-      </c>
       <c r="J291" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K291" s="4">
-        <v>1.7595E-2</v>
+        <v>7.0378999999999997E-2</v>
       </c>
       <c r="L291" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M291" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="292" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15601,13 +15604,13 @@
         <v>14</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>351</v>
+        <v>23</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="G292" s="1" t="s">
         <v>766</v>
@@ -15619,16 +15622,16 @@
         <v>767</v>
       </c>
       <c r="J292" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K292" s="4">
-        <v>7.0378999999999997E-2</v>
+        <v>3.9587999999999998E-2</v>
       </c>
       <c r="L292" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M292" s="1" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
     </row>
     <row r="293" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15642,34 +15645,34 @@
         <v>14</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H293" s="3">
         <v>0</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="J293" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K293" s="4">
-        <v>3.9587999999999998E-2</v>
+        <v>5.2783999999999998E-2</v>
       </c>
       <c r="L293" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M293" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="294" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15683,34 +15686,34 @@
         <v>14</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="F294" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="H294" s="3">
+        <v>0</v>
+      </c>
+      <c r="I294" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J294" s="3">
+        <v>9</v>
+      </c>
+      <c r="K294" s="4">
+        <v>3.9587999999999998E-2</v>
+      </c>
+      <c r="L294" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M294" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="G294" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="H294" s="3">
-        <v>0</v>
-      </c>
-      <c r="I294" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="J294" s="3">
-        <v>12</v>
-      </c>
-      <c r="K294" s="4">
-        <v>5.2783999999999998E-2</v>
-      </c>
-      <c r="L294" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M294" s="1" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="295" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15724,34 +15727,34 @@
         <v>14</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="F295" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="G295" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="G295" s="1" t="s">
+      <c r="H295" s="3">
+        <v>0</v>
+      </c>
+      <c r="I295" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="H295" s="3">
-        <v>0</v>
-      </c>
-      <c r="I295" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="J295" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K295" s="4">
-        <v>3.9587999999999998E-2</v>
+        <v>4.3986999999999998E-2</v>
       </c>
       <c r="L295" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M295" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="296" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15765,34 +15768,34 @@
         <v>14</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>748</v>
+        <v>778</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H296" s="3">
         <v>0</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>780</v>
+        <v>133</v>
       </c>
       <c r="J296" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K296" s="4">
-        <v>4.3986999999999998E-2</v>
+        <v>2.8441000000000001E-2</v>
       </c>
       <c r="L296" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M296" s="1" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
     </row>
     <row r="297" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15806,10 +15809,10 @@
         <v>14</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>782</v>
@@ -15821,19 +15824,19 @@
         <v>0</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>133</v>
+        <v>784</v>
       </c>
       <c r="J297" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K297" s="4">
-        <v>2.8441000000000001E-2</v>
+        <v>8.5323999999999997E-2</v>
       </c>
       <c r="L297" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M297" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="298" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15847,10 +15850,10 @@
         <v>14</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>99</v>
+        <v>473</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>785</v>
@@ -15865,16 +15868,16 @@
         <v>787</v>
       </c>
       <c r="J298" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K298" s="4">
-        <v>8.5323999999999997E-2</v>
+        <v>2.8441000000000001E-2</v>
       </c>
       <c r="L298" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M298" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="299" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15888,10 +15891,10 @@
         <v>14</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>473</v>
+        <v>23</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>788</v>
@@ -15906,16 +15909,16 @@
         <v>790</v>
       </c>
       <c r="J299" s="3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="K299" s="4">
-        <v>2.8441000000000001E-2</v>
+        <v>0.29863499999999998</v>
       </c>
       <c r="L299" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M299" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="300" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15929,10 +15932,10 @@
         <v>14</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>791</v>
@@ -15947,16 +15950,16 @@
         <v>793</v>
       </c>
       <c r="J300" s="3">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="K300" s="4">
-        <v>0.29863499999999998</v>
+        <v>7.1104000000000001E-2</v>
       </c>
       <c r="L300" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M300" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="301" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15970,10 +15973,10 @@
         <v>14</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>794</v>
@@ -15988,16 +15991,16 @@
         <v>796</v>
       </c>
       <c r="J301" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K301" s="4">
-        <v>7.1104000000000001E-2</v>
+        <v>0.12798599999999999</v>
       </c>
       <c r="L301" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M301" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="302" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16011,10 +16014,10 @@
         <v>14</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>797</v>
@@ -16029,16 +16032,16 @@
         <v>799</v>
       </c>
       <c r="J302" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K302" s="4">
-        <v>0.12798599999999999</v>
+        <v>7.1104000000000001E-2</v>
       </c>
       <c r="L302" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M302" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="303" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16052,7 +16055,7 @@
         <v>14</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>117</v>
@@ -16070,16 +16073,16 @@
         <v>802</v>
       </c>
       <c r="J303" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K303" s="4">
-        <v>7.1104000000000001E-2</v>
+        <v>0.11376600000000001</v>
       </c>
       <c r="L303" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M303" s="1" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
     </row>
     <row r="304" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16093,34 +16096,34 @@
         <v>14</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>781</v>
+        <v>804</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="H304" s="3">
         <v>0</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="J304" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K304" s="4">
-        <v>0.11376600000000001</v>
+        <v>9.2119999999999997E-3</v>
       </c>
       <c r="L304" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M304" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="305" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16134,34 +16137,34 @@
         <v>14</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F305" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="H305" s="3">
+        <v>0</v>
+      </c>
+      <c r="I305" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J305" s="3">
+        <v>4</v>
+      </c>
+      <c r="K305" s="4">
+        <v>1.8425E-2</v>
+      </c>
+      <c r="L305" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M305" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="G305" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="H305" s="3">
-        <v>0</v>
-      </c>
-      <c r="I305" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="J305" s="3">
-        <v>2</v>
-      </c>
-      <c r="K305" s="4">
-        <v>9.2119999999999997E-3</v>
-      </c>
-      <c r="L305" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M305" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="306" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16175,37 +16178,37 @@
         <v>14</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="F306" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="G306" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="G306" s="1" t="s">
+      <c r="H306" s="3">
+        <v>0</v>
+      </c>
+      <c r="I306" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="H306" s="3">
-        <v>0</v>
-      </c>
-      <c r="I306" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="J306" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K306" s="4">
-        <v>1.8425E-2</v>
+        <v>4.6061999999999999E-2</v>
       </c>
       <c r="L306" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M306" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>13</v>
       </c>
@@ -16216,7 +16219,7 @@
         <v>14</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>28</v>
@@ -16234,19 +16237,19 @@
         <v>816</v>
       </c>
       <c r="J307" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K307" s="4">
-        <v>4.6061999999999999E-2</v>
+        <v>7.8305E-2</v>
       </c>
       <c r="L307" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M307" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>13</v>
       </c>
@@ -16257,7 +16260,7 @@
         <v>14</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>28</v>
@@ -16272,63 +16275,63 @@
         <v>0</v>
       </c>
       <c r="I308" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="J308" s="3">
+        <v>5</v>
+      </c>
+      <c r="K308" s="4">
+        <v>2.3030999999999999E-2</v>
+      </c>
+      <c r="L308" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M308" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A309" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F309" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="J308" s="3">
-        <v>17</v>
-      </c>
-      <c r="K308" s="4">
-        <v>7.8305E-2</v>
-      </c>
-      <c r="L308" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M308" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A309" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F309" s="1" t="s">
+      <c r="G309" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="G309" s="1" t="s">
+      <c r="H309" s="3">
+        <v>0</v>
+      </c>
+      <c r="I309" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="H309" s="3">
-        <v>0</v>
-      </c>
-      <c r="I309" s="2" t="s">
-        <v>521</v>
-      </c>
       <c r="J309" s="3">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="K309" s="4">
-        <v>2.3030999999999999E-2</v>
+        <v>0.22570200000000001</v>
       </c>
       <c r="L309" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M309" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>13</v>
       </c>
@@ -16339,10 +16342,10 @@
         <v>14</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>473</v>
+        <v>90</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>822</v>
@@ -16357,19 +16360,19 @@
         <v>824</v>
       </c>
       <c r="J310" s="3">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="K310" s="4">
-        <v>0.22570200000000001</v>
+        <v>1.8425E-2</v>
       </c>
       <c r="L310" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M310" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>13</v>
       </c>
@@ -16380,37 +16383,37 @@
         <v>14</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H311" s="3">
         <v>0</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="J311" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K311" s="4">
-        <v>1.8425E-2</v>
+        <v>5.9880000000000003E-2</v>
       </c>
       <c r="L311" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M311" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>13</v>
       </c>
@@ -16421,34 +16424,34 @@
         <v>14</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="F312" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="H312" s="3">
+        <v>0</v>
+      </c>
+      <c r="I312" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="J312" s="3">
+        <v>9</v>
+      </c>
+      <c r="K312" s="4">
+        <v>4.1456E-2</v>
+      </c>
+      <c r="L312" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M312" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="G312" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="H312" s="3">
-        <v>0</v>
-      </c>
-      <c r="I312" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="J312" s="3">
-        <v>13</v>
-      </c>
-      <c r="K312" s="4">
-        <v>5.9880000000000003E-2</v>
-      </c>
-      <c r="L312" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M312" s="1" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="313" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16462,22 +16465,22 @@
         <v>14</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="H313" s="3">
         <v>0</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="J313" s="3">
         <v>9</v>
@@ -16489,10 +16492,10 @@
         <v>20</v>
       </c>
       <c r="M313" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>13</v>
       </c>
@@ -16503,7 +16506,7 @@
         <v>14</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>160</v>
@@ -16521,19 +16524,19 @@
         <v>835</v>
       </c>
       <c r="J314" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K314" s="4">
-        <v>4.1456E-2</v>
+        <v>5.9880000000000003E-2</v>
       </c>
       <c r="L314" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M314" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>13</v>
       </c>
@@ -16544,10 +16547,10 @@
         <v>14</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>836</v>
@@ -16559,19 +16562,19 @@
         <v>0</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>838</v>
+        <v>40</v>
       </c>
       <c r="J315" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K315" s="4">
-        <v>5.9880000000000003E-2</v>
+        <v>5.5273999999999997E-2</v>
       </c>
       <c r="L315" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M315" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="316" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16585,16 +16588,16 @@
         <v>14</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="H316" s="3">
         <v>0</v>
@@ -16612,7 +16615,7 @@
         <v>20</v>
       </c>
       <c r="M316" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16626,34 +16629,34 @@
         <v>14</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="F317" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="G317" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="G317" s="1" t="s">
+      <c r="H317" s="3">
+        <v>0</v>
+      </c>
+      <c r="I317" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="H317" s="3">
-        <v>0</v>
-      </c>
-      <c r="I317" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="J317" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K317" s="4">
-        <v>5.5273999999999997E-2</v>
+        <v>4.1456E-2</v>
       </c>
       <c r="L317" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M317" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="318" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16667,22 +16670,22 @@
         <v>14</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="H318" s="3">
         <v>0</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="J318" s="3">
         <v>9</v>
@@ -16694,7 +16697,7 @@
         <v>20</v>
       </c>
       <c r="M318" s="1" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
     </row>
     <row r="319" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16708,28 +16711,28 @@
         <v>14</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H319" s="3">
         <v>0</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>843</v>
+        <v>65</v>
       </c>
       <c r="J319" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K319" s="4">
-        <v>4.1456E-2</v>
+        <v>5.9880000000000003E-2</v>
       </c>
       <c r="L319" s="1" t="s">
         <v>20</v>
@@ -16749,16 +16752,16 @@
         <v>14</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="H320" s="3">
         <v>0</v>
@@ -16776,7 +16779,7 @@
         <v>20</v>
       </c>
       <c r="M320" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="321" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16790,10 +16793,10 @@
         <v>14</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>845</v>
@@ -16805,19 +16808,19 @@
         <v>0</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>65</v>
+        <v>847</v>
       </c>
       <c r="J321" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K321" s="4">
-        <v>5.9880000000000003E-2</v>
+        <v>4.6061999999999999E-2</v>
       </c>
       <c r="L321" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M321" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="322" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16831,22 +16834,22 @@
         <v>14</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="H322" s="3">
         <v>0</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="J322" s="3">
         <v>10</v>
@@ -16858,7 +16861,7 @@
         <v>20</v>
       </c>
       <c r="M322" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="323" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16872,10 +16875,10 @@
         <v>14</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>848</v>
@@ -16890,16 +16893,16 @@
         <v>850</v>
       </c>
       <c r="J323" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K323" s="4">
-        <v>4.6061999999999999E-2</v>
+        <v>5.5273999999999997E-2</v>
       </c>
       <c r="L323" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M323" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="324" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16913,22 +16916,22 @@
         <v>14</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="H324" s="3">
         <v>0</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="J324" s="3">
         <v>12</v>
@@ -16940,10 +16943,10 @@
         <v>20</v>
       </c>
       <c r="M324" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
         <v>13</v>
       </c>
@@ -16954,10 +16957,10 @@
         <v>14</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>851</v>
@@ -16972,16 +16975,16 @@
         <v>853</v>
       </c>
       <c r="J325" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K325" s="4">
-        <v>5.5273999999999997E-2</v>
+        <v>4.6061999999999999E-2</v>
       </c>
       <c r="L325" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M325" s="1" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
     </row>
     <row r="326" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -16995,22 +16998,22 @@
         <v>14</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="H326" s="3">
         <v>0</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="J326" s="3">
         <v>10</v>
@@ -17022,10 +17025,10 @@
         <v>20</v>
       </c>
       <c r="M326" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
         <v>13</v>
       </c>
@@ -17036,22 +17039,22 @@
         <v>14</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H327" s="3">
         <v>0</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>856</v>
+        <v>154</v>
       </c>
       <c r="J327" s="3">
         <v>10</v>
@@ -17063,7 +17066,7 @@
         <v>20</v>
       </c>
       <c r="M327" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="328" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17077,16 +17080,16 @@
         <v>14</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="H328" s="3">
         <v>0</v>
@@ -17104,7 +17107,7 @@
         <v>20</v>
       </c>
       <c r="M328" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="329" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17118,34 +17121,34 @@
         <v>14</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="F329" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="G329" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="G329" s="1" t="s">
+      <c r="H329" s="3">
+        <v>0</v>
+      </c>
+      <c r="I329" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="H329" s="3">
-        <v>0</v>
-      </c>
-      <c r="I329" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="J329" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K329" s="4">
-        <v>4.6061999999999999E-2</v>
+        <v>4.1456E-2</v>
       </c>
       <c r="L329" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M329" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="330" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17159,22 +17162,22 @@
         <v>14</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="H330" s="3">
         <v>0</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J330" s="3">
         <v>9</v>
@@ -17186,7 +17189,7 @@
         <v>20</v>
       </c>
       <c r="M330" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="331" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17200,10 +17203,10 @@
         <v>14</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>860</v>
@@ -17218,16 +17221,16 @@
         <v>862</v>
       </c>
       <c r="J331" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K331" s="4">
-        <v>4.1456E-2</v>
+        <v>3.6849E-2</v>
       </c>
       <c r="L331" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M331" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="332" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17241,22 +17244,22 @@
         <v>14</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="H332" s="3">
         <v>0</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="J332" s="3">
         <v>8</v>
@@ -17268,10 +17271,10 @@
         <v>20</v>
       </c>
       <c r="M332" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
         <v>13</v>
       </c>
@@ -17282,7 +17285,7 @@
         <v>14</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>209</v>
@@ -17300,16 +17303,16 @@
         <v>865</v>
       </c>
       <c r="J333" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K333" s="4">
-        <v>3.6849E-2</v>
+        <v>5.0667999999999998E-2</v>
       </c>
       <c r="L333" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M333" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="334" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -17323,22 +17326,22 @@
         <v>14</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="H334" s="3">
         <v>0</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="J334" s="3">
         <v>11</v>
@@ -17350,10 +17353,10 @@
         <v>20</v>
       </c>
       <c r="M334" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
         <v>13</v>
       </c>
@@ -17364,10 +17367,10 @@
         <v>14</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>866</v>
@@ -17382,16 +17385,16 @@
         <v>868</v>
       </c>
       <c r="J335" s="3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="K335" s="4">
-        <v>5.0667999999999998E-2</v>
+        <v>0.133579</v>
       </c>
       <c r="L335" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M335" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="336" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17405,22 +17408,22 @@
         <v>14</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="H336" s="3">
         <v>0</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="J336" s="3">
         <v>29</v>
@@ -17432,10 +17435,10 @@
         <v>20</v>
       </c>
       <c r="M336" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
         <v>13</v>
       </c>
@@ -17446,10 +17449,10 @@
         <v>14</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>869</v>
@@ -17464,16 +17467,16 @@
         <v>871</v>
       </c>
       <c r="J337" s="3">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K337" s="4">
-        <v>0.133579</v>
+        <v>6.9093000000000002E-2</v>
       </c>
       <c r="L337" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M337" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="338" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -17487,22 +17490,22 @@
         <v>14</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="H338" s="3">
         <v>0</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J338" s="3">
         <v>15</v>
@@ -17514,10 +17517,10 @@
         <v>20</v>
       </c>
       <c r="M338" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
         <v>13</v>
       </c>
@@ -17528,34 +17531,34 @@
         <v>14</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F339" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="H339" s="3">
+        <v>0</v>
+      </c>
+      <c r="I339" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J339" s="3">
+        <v>8</v>
+      </c>
+      <c r="K339" s="4">
+        <v>3.6849E-2</v>
+      </c>
+      <c r="L339" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M339" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="G339" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="H339" s="3">
-        <v>0</v>
-      </c>
-      <c r="I339" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="J339" s="3">
-        <v>15</v>
-      </c>
-      <c r="K339" s="4">
-        <v>6.9093000000000002E-2</v>
-      </c>
-      <c r="L339" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M339" s="1" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="340" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17569,16 +17572,16 @@
         <v>14</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="H340" s="3">
         <v>0</v>
@@ -17596,7 +17599,7 @@
         <v>20</v>
       </c>
       <c r="M340" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="341" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17610,34 +17613,34 @@
         <v>14</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="F341" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="G341" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="G341" s="1" t="s">
+      <c r="H341" s="3">
+        <v>0</v>
+      </c>
+      <c r="I341" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="H341" s="3">
-        <v>0</v>
-      </c>
-      <c r="I341" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="J341" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K341" s="4">
-        <v>3.6849E-2</v>
+        <v>4.1456E-2</v>
       </c>
       <c r="L341" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M341" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="342" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17651,22 +17654,22 @@
         <v>14</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="H342" s="3">
         <v>0</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="J342" s="3">
         <v>9</v>
@@ -17678,7 +17681,7 @@
         <v>20</v>
       </c>
       <c r="M342" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17692,10 +17695,10 @@
         <v>14</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>878</v>
@@ -17710,16 +17713,16 @@
         <v>880</v>
       </c>
       <c r="J343" s="3">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="K343" s="4">
-        <v>4.1456E-2</v>
+        <v>0.11976000000000001</v>
       </c>
       <c r="L343" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M343" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="344" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17733,34 +17736,34 @@
         <v>14</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>807</v>
+        <v>881</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H344" s="3">
         <v>0</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J344" s="3">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="K344" s="4">
-        <v>0.11976000000000001</v>
+        <v>1.8547999999999999E-2</v>
       </c>
       <c r="L344" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M344" s="1" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
     </row>
     <row r="345" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17774,28 +17777,28 @@
         <v>14</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H345" s="3">
         <v>0</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>887</v>
+        <v>136</v>
       </c>
       <c r="J345" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K345" s="4">
-        <v>1.8547999999999999E-2</v>
+        <v>2.7822E-2</v>
       </c>
       <c r="L345" s="1" t="s">
         <v>20</v>
@@ -17815,10 +17818,10 @@
         <v>14</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>889</v>
@@ -17830,19 +17833,19 @@
         <v>0</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>136</v>
+        <v>891</v>
       </c>
       <c r="J346" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K346" s="4">
-        <v>2.7822E-2</v>
+        <v>7.4190999999999993E-2</v>
       </c>
       <c r="L346" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M346" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="347" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17856,7 +17859,7 @@
         <v>14</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>28</v>
@@ -17874,16 +17877,16 @@
         <v>894</v>
       </c>
       <c r="J347" s="3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K347" s="4">
-        <v>7.4190999999999993E-2</v>
+        <v>0.19475100000000001</v>
       </c>
       <c r="L347" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M347" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="348" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17897,7 +17900,7 @@
         <v>14</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>28</v>
@@ -17912,19 +17915,19 @@
         <v>0</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>897</v>
+        <v>521</v>
       </c>
       <c r="J348" s="3">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="K348" s="4">
-        <v>0.19475100000000001</v>
+        <v>4.6369E-2</v>
       </c>
       <c r="L348" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M348" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="349" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17938,34 +17941,34 @@
         <v>14</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F349" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="H349" s="3">
+        <v>0</v>
+      </c>
+      <c r="I349" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="G349" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="H349" s="3">
-        <v>0</v>
-      </c>
-      <c r="I349" s="2" t="s">
-        <v>521</v>
-      </c>
       <c r="J349" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K349" s="4">
-        <v>4.6369E-2</v>
+        <v>6.4917000000000002E-2</v>
       </c>
       <c r="L349" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M349" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="350" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17979,13 +17982,13 @@
         <v>14</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>28</v>
+        <v>473</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>131</v>
+        <v>899</v>
       </c>
       <c r="G350" s="1" t="s">
         <v>900</v>
@@ -17997,16 +18000,16 @@
         <v>901</v>
       </c>
       <c r="J350" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K350" s="4">
-        <v>6.4917000000000002E-2</v>
+        <v>8.3464999999999998E-2</v>
       </c>
       <c r="L350" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M350" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="351" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18020,7 +18023,7 @@
         <v>14</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>473</v>
@@ -18038,16 +18041,16 @@
         <v>904</v>
       </c>
       <c r="J351" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K351" s="4">
-        <v>8.3464999999999998E-2</v>
+        <v>0.185477</v>
       </c>
       <c r="L351" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M351" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="352" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18061,34 +18064,34 @@
         <v>14</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>473</v>
+        <v>33</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>905</v>
       </c>
       <c r="G352" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H352" s="3">
+        <v>0</v>
+      </c>
+      <c r="I352" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J352" s="3">
+        <v>8</v>
+      </c>
+      <c r="K352" s="4">
+        <v>7.4190999999999993E-2</v>
+      </c>
+      <c r="L352" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M352" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="H352" s="3">
-        <v>0</v>
-      </c>
-      <c r="I352" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="J352" s="3">
-        <v>20</v>
-      </c>
-      <c r="K352" s="4">
-        <v>0.185477</v>
-      </c>
-      <c r="L352" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M352" s="1" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="353" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18102,34 +18105,34 @@
         <v>14</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F353" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="G353" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="G353" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="H353" s="3">
         <v>0</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>71</v>
+        <v>909</v>
       </c>
       <c r="J353" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K353" s="4">
-        <v>7.4190999999999993E-2</v>
+        <v>8.3464999999999998E-2</v>
       </c>
       <c r="L353" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M353" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="354" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18143,16 +18146,16 @@
         <v>14</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>884</v>
+        <v>910</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="H354" s="3">
         <v>0</v>
@@ -18161,16 +18164,16 @@
         <v>912</v>
       </c>
       <c r="J354" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K354" s="4">
-        <v>8.3464999999999998E-2</v>
+        <v>1.0836E-2</v>
       </c>
       <c r="L354" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M354" s="1" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
     </row>
     <row r="355" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18184,34 +18187,34 @@
         <v>14</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>914</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
       <c r="H355" s="3">
         <v>0</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>915</v>
+        <v>784</v>
       </c>
       <c r="J355" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K355" s="4">
-        <v>1.0836E-2</v>
+        <v>3.2508000000000002E-2</v>
       </c>
       <c r="L355" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M355" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="356" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18225,22 +18228,22 @@
         <v>14</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="F356" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="G356" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="G356" s="1" t="s">
+      <c r="H356" s="3">
+        <v>0</v>
+      </c>
+      <c r="I356" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="H356" s="3">
-        <v>0</v>
-      </c>
-      <c r="I356" s="2" t="s">
-        <v>787</v>
       </c>
       <c r="J356" s="3">
         <v>6</v>
@@ -18252,10 +18255,10 @@
         <v>20</v>
       </c>
       <c r="M356" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>13</v>
       </c>
@@ -18266,10 +18269,10 @@
         <v>14</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>919</v>
@@ -18284,19 +18287,19 @@
         <v>921</v>
       </c>
       <c r="J357" s="3">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="K357" s="4">
-        <v>3.2508000000000002E-2</v>
+        <v>0.18962999999999999</v>
       </c>
       <c r="L357" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M357" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="358" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
         <v>13</v>
       </c>
@@ -18307,10 +18310,10 @@
         <v>14</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>922</v>
@@ -18322,19 +18325,19 @@
         <v>0</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>924</v>
+        <v>521</v>
       </c>
       <c r="J358" s="3">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K358" s="4">
-        <v>0.18962999999999999</v>
+        <v>2.7089999999999999E-2</v>
       </c>
       <c r="L358" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M358" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="359" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18348,34 +18351,34 @@
         <v>14</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F359" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="G359" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="G359" s="1" t="s">
+      <c r="H359" s="3">
+        <v>0</v>
+      </c>
+      <c r="I359" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="H359" s="3">
-        <v>0</v>
-      </c>
-      <c r="I359" s="2" t="s">
-        <v>521</v>
-      </c>
       <c r="J359" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K359" s="4">
-        <v>2.7089999999999999E-2</v>
+        <v>8.1269999999999995E-2</v>
       </c>
       <c r="L359" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M359" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="360" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18389,10 +18392,10 @@
         <v>14</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>28</v>
+        <v>473</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>927</v>
@@ -18407,16 +18410,16 @@
         <v>929</v>
       </c>
       <c r="J360" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K360" s="4">
-        <v>8.1269999999999995E-2</v>
+        <v>0.13544999999999999</v>
       </c>
       <c r="L360" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M360" s="1" t="s">
-        <v>916</v>
+        <v>930</v>
       </c>
     </row>
     <row r="361" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18430,34 +18433,34 @@
         <v>14</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>473</v>
+        <v>33</v>
       </c>
       <c r="F361" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="H361" s="3">
+        <v>0</v>
+      </c>
+      <c r="I361" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="J361" s="3">
+        <v>11</v>
+      </c>
+      <c r="K361" s="4">
+        <v>5.9597999999999998E-2</v>
+      </c>
+      <c r="L361" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M361" s="1" t="s">
         <v>930</v>
-      </c>
-      <c r="G361" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="H361" s="3">
-        <v>0</v>
-      </c>
-      <c r="I361" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="J361" s="3">
-        <v>25</v>
-      </c>
-      <c r="K361" s="4">
-        <v>0.13544999999999999</v>
-      </c>
-      <c r="L361" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M361" s="1" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="362" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18471,10 +18474,10 @@
         <v>14</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>934</v>
@@ -18486,19 +18489,19 @@
         <v>0</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>936</v>
+        <v>777</v>
       </c>
       <c r="J362" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K362" s="4">
-        <v>5.9597999999999998E-2</v>
+        <v>5.4179999999999999E-2</v>
       </c>
       <c r="L362" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M362" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="363" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18512,34 +18515,34 @@
         <v>14</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="F363" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="G363" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="G363" s="1" t="s">
+      <c r="H363" s="3">
+        <v>0</v>
+      </c>
+      <c r="I363" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="H363" s="3">
-        <v>0</v>
-      </c>
-      <c r="I363" s="2" t="s">
-        <v>780</v>
-      </c>
       <c r="J363" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K363" s="4">
-        <v>5.4179999999999999E-2</v>
+        <v>3.7926000000000001E-2</v>
       </c>
       <c r="L363" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M363" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="364" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18553,10 +18556,10 @@
         <v>14</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>939</v>
@@ -18568,19 +18571,19 @@
         <v>0</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>941</v>
+        <v>71</v>
       </c>
       <c r="J364" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K364" s="4">
-        <v>3.7926000000000001E-2</v>
+        <v>4.3344000000000001E-2</v>
       </c>
       <c r="L364" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M364" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="365" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18594,34 +18597,34 @@
         <v>14</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F365" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="G365" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="G365" s="1" t="s">
-        <v>943</v>
-      </c>
       <c r="H365" s="3">
         <v>0</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J365" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K365" s="4">
-        <v>4.3344000000000001E-2</v>
+        <v>4.8762E-2</v>
       </c>
       <c r="L365" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M365" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="366" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18635,22 +18638,22 @@
         <v>14</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="F366" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="G366" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="G366" s="1" t="s">
+      <c r="H366" s="3">
+        <v>0</v>
+      </c>
+      <c r="I366" s="2" t="s">
         <v>945</v>
-      </c>
-      <c r="H366" s="3">
-        <v>0</v>
-      </c>
-      <c r="I366" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="J366" s="3">
         <v>9</v>
@@ -18662,7 +18665,7 @@
         <v>20</v>
       </c>
       <c r="M366" s="1" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
     </row>
     <row r="367" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18676,22 +18679,22 @@
         <v>14</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="H367" s="3">
         <v>0</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J367" s="3">
         <v>9</v>
@@ -18703,7 +18706,7 @@
         <v>20</v>
       </c>
       <c r="M367" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="368" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18717,34 +18720,34 @@
         <v>14</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>160</v>
       </c>
       <c r="F368" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="H368" s="3">
+        <v>0</v>
+      </c>
+      <c r="I368" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J368" s="3">
+        <v>8</v>
+      </c>
+      <c r="K368" s="4">
+        <v>4.3344000000000001E-2</v>
+      </c>
+      <c r="L368" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M368" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="G368" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="H368" s="3">
-        <v>0</v>
-      </c>
-      <c r="I368" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="J368" s="3">
-        <v>9</v>
-      </c>
-      <c r="K368" s="4">
-        <v>4.8762E-2</v>
-      </c>
-      <c r="L368" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M368" s="1" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18758,34 +18761,34 @@
         <v>14</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F369" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="G369" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="G369" s="1" t="s">
-        <v>943</v>
-      </c>
       <c r="H369" s="3">
         <v>0</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J369" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K369" s="4">
-        <v>4.3344000000000001E-2</v>
+        <v>4.8762E-2</v>
       </c>
       <c r="L369" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M369" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="370" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18799,22 +18802,22 @@
         <v>14</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>169</v>
       </c>
       <c r="F370" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="G370" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="G370" s="1" t="s">
+      <c r="H370" s="3">
+        <v>0</v>
+      </c>
+      <c r="I370" s="2" t="s">
         <v>945</v>
-      </c>
-      <c r="H370" s="3">
-        <v>0</v>
-      </c>
-      <c r="I370" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="J370" s="3">
         <v>9</v>
@@ -18826,7 +18829,7 @@
         <v>20</v>
       </c>
       <c r="M370" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="371" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18840,34 +18843,34 @@
         <v>14</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="F371" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="H371" s="3">
+        <v>0</v>
+      </c>
+      <c r="I371" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="J371" s="3">
+        <v>11</v>
+      </c>
+      <c r="K371" s="4">
+        <v>5.9597999999999998E-2</v>
+      </c>
+      <c r="L371" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M371" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="G371" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="H371" s="3">
-        <v>0</v>
-      </c>
-      <c r="I371" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="J371" s="3">
-        <v>9</v>
-      </c>
-      <c r="K371" s="4">
-        <v>4.8762E-2</v>
-      </c>
-      <c r="L371" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M371" s="1" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="372" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18881,7 +18884,7 @@
         <v>14</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>33</v>
@@ -18896,19 +18899,19 @@
         <v>0</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>952</v>
+        <v>59</v>
       </c>
       <c r="J372" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K372" s="4">
-        <v>5.9597999999999998E-2</v>
+        <v>4.3344000000000001E-2</v>
       </c>
       <c r="L372" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M372" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="373" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18922,34 +18925,34 @@
         <v>14</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F373" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="G373" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="G373" s="1" t="s">
+      <c r="H373" s="3">
+        <v>0</v>
+      </c>
+      <c r="I373" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="H373" s="3">
-        <v>0</v>
-      </c>
-      <c r="I373" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="J373" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K373" s="4">
-        <v>4.3344000000000001E-2</v>
+        <v>5.4179999999999999E-2</v>
       </c>
       <c r="L373" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M373" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="374" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18963,7 +18966,7 @@
         <v>14</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>33</v>
@@ -18990,7 +18993,7 @@
         <v>20</v>
       </c>
       <c r="M374" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="375" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19004,7 +19007,7 @@
         <v>14</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>33</v>
@@ -19022,16 +19025,16 @@
         <v>960</v>
       </c>
       <c r="J375" s="3">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K375" s="4">
-        <v>5.4179999999999999E-2</v>
+        <v>0.15712200000000001</v>
       </c>
       <c r="L375" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M375" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="376" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19045,34 +19048,34 @@
         <v>14</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>913</v>
+        <v>881</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>33</v>
+        <v>961</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H376" s="3">
         <v>0</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="J376" s="3">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K376" s="4">
-        <v>0.15712200000000001</v>
+        <v>8.3464999999999998E-2</v>
       </c>
       <c r="L376" s="1" t="s">
-        <v>20</v>
+        <v>965</v>
       </c>
       <c r="M376" s="1" t="s">
-        <v>949</v>
+        <v>966</v>
       </c>
     </row>
     <row r="377" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19086,34 +19089,34 @@
         <v>14</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>964</v>
+        <v>81</v>
       </c>
       <c r="F377" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="H377" s="3">
+        <v>0</v>
+      </c>
+      <c r="I377" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="J377" s="3">
+        <v>41</v>
+      </c>
+      <c r="K377" s="4">
+        <v>0.38022800000000001</v>
+      </c>
+      <c r="L377" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="G377" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="H377" s="3">
-        <v>0</v>
-      </c>
-      <c r="I377" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="J377" s="3">
-        <v>9</v>
-      </c>
-      <c r="K377" s="4">
-        <v>8.3464999999999998E-2</v>
-      </c>
-      <c r="L377" s="1" t="s">
-        <v>968</v>
-      </c>
       <c r="M377" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="378" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19127,34 +19130,34 @@
         <v>14</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>884</v>
+        <v>495</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H378" s="3">
         <v>0</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="J378" s="3">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="K378" s="4">
-        <v>0.38022800000000001</v>
+        <v>6.7583000000000004E-2</v>
       </c>
       <c r="L378" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M378" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="379" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19171,31 +19174,31 @@
         <v>495</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>974</v>
+        <v>513</v>
       </c>
       <c r="G379" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H379" s="3">
+        <v>0</v>
+      </c>
+      <c r="I379" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J379" s="3">
+        <v>2</v>
+      </c>
+      <c r="K379" s="4">
+        <v>1.5018E-2</v>
+      </c>
+      <c r="L379" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="M379" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="H379" s="3">
-        <v>0</v>
-      </c>
-      <c r="I379" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="J379" s="3">
-        <v>9</v>
-      </c>
-      <c r="K379" s="4">
-        <v>6.7583000000000004E-2</v>
-      </c>
-      <c r="L379" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="M379" s="1" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="380" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19215,28 +19218,28 @@
         <v>160</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="H380" s="3">
         <v>0</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>515</v>
+        <v>227</v>
       </c>
       <c r="J380" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K380" s="4">
-        <v>1.5018E-2</v>
+        <v>2.2527999999999999E-2</v>
       </c>
       <c r="L380" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M380" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="381" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19256,31 +19259,31 @@
         <v>160</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H381" s="3">
         <v>0</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>227</v>
+        <v>521</v>
       </c>
       <c r="J381" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K381" s="4">
-        <v>2.2527999999999999E-2</v>
+        <v>3.7546000000000003E-2</v>
       </c>
       <c r="L381" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M381" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="382" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
         <v>13</v>
       </c>
@@ -19297,31 +19300,31 @@
         <v>160</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="H382" s="3">
         <v>0</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="J382" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K382" s="4">
-        <v>3.7546000000000003E-2</v>
+        <v>0.15018400000000001</v>
       </c>
       <c r="L382" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M382" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="383" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="6" t="s">
         <v>13</v>
       </c>
@@ -19338,28 +19341,28 @@
         <v>160</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="H383" s="3">
         <v>0</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="J383" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K383" s="4">
-        <v>0.15018400000000001</v>
+        <v>0.105129</v>
       </c>
       <c r="L383" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M383" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="384" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19376,31 +19379,31 @@
         <v>495</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H384" s="3">
         <v>0</v>
       </c>
       <c r="I384" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="J384" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K384" s="4">
-        <v>0.105129</v>
+        <v>1.5018E-2</v>
       </c>
       <c r="L384" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M384" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="385" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19420,28 +19423,28 @@
         <v>169</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="H385" s="3">
         <v>0</v>
       </c>
       <c r="I385" s="2" t="s">
-        <v>530</v>
+        <v>469</v>
       </c>
       <c r="J385" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K385" s="4">
-        <v>1.5018E-2</v>
+        <v>3.7546000000000003E-2</v>
       </c>
       <c r="L385" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M385" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="386" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19461,16 +19464,16 @@
         <v>169</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H386" s="3">
         <v>0</v>
       </c>
       <c r="I386" s="2" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="J386" s="3">
         <v>5</v>
@@ -19479,10 +19482,10 @@
         <v>3.7546000000000003E-2</v>
       </c>
       <c r="L386" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M386" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="387" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19502,28 +19505,28 @@
         <v>169</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H387" s="3">
         <v>0</v>
       </c>
       <c r="I387" s="2" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="J387" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K387" s="4">
-        <v>3.7546000000000003E-2</v>
+        <v>6.0074000000000002E-2</v>
       </c>
       <c r="L387" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M387" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="388" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19543,28 +19546,28 @@
         <v>169</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="H388" s="3">
         <v>0</v>
       </c>
       <c r="I388" s="2" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="J388" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K388" s="4">
-        <v>6.0074000000000002E-2</v>
+        <v>0.112638</v>
       </c>
       <c r="L388" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M388" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="389" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19581,31 +19584,31 @@
         <v>495</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H389" s="3">
         <v>0</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J389" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K389" s="4">
-        <v>0.112638</v>
+        <v>1.5018E-2</v>
       </c>
       <c r="L389" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M389" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="390" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19625,28 +19628,28 @@
         <v>180</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H390" s="3">
         <v>0</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="J390" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K390" s="4">
-        <v>1.5018E-2</v>
+        <v>3.7546000000000003E-2</v>
       </c>
       <c r="L390" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M390" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="391" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19666,16 +19669,16 @@
         <v>180</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H391" s="3">
         <v>0</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="J391" s="3">
         <v>5</v>
@@ -19684,10 +19687,10 @@
         <v>3.7546000000000003E-2</v>
       </c>
       <c r="L391" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M391" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="392" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19707,28 +19710,28 @@
         <v>180</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H392" s="3">
         <v>0</v>
       </c>
       <c r="I392" s="2" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="J392" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K392" s="4">
-        <v>3.7546000000000003E-2</v>
+        <v>6.0074000000000002E-2</v>
       </c>
       <c r="L392" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M392" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="393" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19748,72 +19751,72 @@
         <v>180</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H393" s="3">
         <v>0</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="J393" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K393" s="4">
-        <v>6.0074000000000002E-2</v>
+        <v>0.120147</v>
       </c>
       <c r="L393" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M393" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A394" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="H394" s="3">
+        <v>0</v>
+      </c>
+      <c r="I394" s="2" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="394" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A394" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D394" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="E394" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F394" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G394" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="H394" s="3">
-        <v>0</v>
-      </c>
-      <c r="I394" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="J394" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K394" s="4">
-        <v>0.120147</v>
+        <v>0.19467300000000001</v>
       </c>
       <c r="L394" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M394" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="395" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="6" t="s">
         <v>13</v>
       </c>
@@ -19827,31 +19830,31 @@
         <v>626</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H395" s="3">
         <v>0</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="J395" s="3">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K395" s="4">
-        <v>0.19467300000000001</v>
+        <v>9.7337000000000007E-2</v>
       </c>
       <c r="L395" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M395" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="396" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19868,19 +19871,19 @@
         <v>626</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="H396" s="3">
         <v>0</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="J396" s="3">
         <v>11</v>
@@ -19889,10 +19892,10 @@
         <v>9.7337000000000007E-2</v>
       </c>
       <c r="L396" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M396" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="397" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19912,31 +19915,31 @@
         <v>160</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>984</v>
+        <v>627</v>
       </c>
       <c r="G397" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H397" s="3">
+        <v>0</v>
+      </c>
+      <c r="I397" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J397" s="3">
+        <v>3</v>
+      </c>
+      <c r="K397" s="4">
+        <v>2.6546E-2</v>
+      </c>
+      <c r="L397" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="M397" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="H397" s="3">
-        <v>0</v>
-      </c>
-      <c r="I397" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="J397" s="3">
-        <v>11</v>
-      </c>
-      <c r="K397" s="4">
-        <v>9.7337000000000007E-2</v>
-      </c>
-      <c r="L397" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="M397" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="398" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="398" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A398" s="6" t="s">
         <v>13</v>
       </c>
@@ -19953,31 +19956,31 @@
         <v>160</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>627</v>
+        <v>977</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>628</v>
+        <v>978</v>
       </c>
       <c r="H398" s="3">
         <v>0</v>
       </c>
       <c r="I398" s="2" t="s">
-        <v>227</v>
+        <v>979</v>
       </c>
       <c r="J398" s="3">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="K398" s="4">
-        <v>2.6546E-2</v>
+        <v>0.19467300000000001</v>
       </c>
       <c r="L398" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M398" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="399" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
         <v>13</v>
       </c>
@@ -19994,28 +19997,28 @@
         <v>160</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>980</v>
+        <v>633</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>981</v>
+        <v>634</v>
       </c>
       <c r="H399" s="3">
         <v>0</v>
       </c>
       <c r="I399" s="2" t="s">
-        <v>982</v>
+        <v>635</v>
       </c>
       <c r="J399" s="3">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K399" s="4">
-        <v>0.19467300000000001</v>
+        <v>3.5395000000000003E-2</v>
       </c>
       <c r="L399" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M399" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="400" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20035,28 +20038,28 @@
         <v>160</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H400" s="3">
         <v>0</v>
       </c>
       <c r="I400" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="J400" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K400" s="4">
-        <v>3.5395000000000003E-2</v>
+        <v>6.1941000000000003E-2</v>
       </c>
       <c r="L400" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M400" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="401" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20076,28 +20079,28 @@
         <v>160</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="G401" s="1" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="H401" s="3">
         <v>0</v>
       </c>
       <c r="I401" s="2" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="J401" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K401" s="4">
-        <v>6.1941000000000003E-2</v>
+        <v>3.5395000000000003E-2</v>
       </c>
       <c r="L401" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M401" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="402" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20117,28 +20120,28 @@
         <v>160</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H402" s="3">
         <v>0</v>
       </c>
       <c r="I402" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J402" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K402" s="4">
-        <v>3.5395000000000003E-2</v>
+        <v>7.0790000000000006E-2</v>
       </c>
       <c r="L402" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M402" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="403" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20155,31 +20158,31 @@
         <v>626</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>636</v>
+        <v>987</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>637</v>
+        <v>988</v>
       </c>
       <c r="H403" s="3">
         <v>0</v>
       </c>
       <c r="I403" s="2" t="s">
-        <v>638</v>
+        <v>989</v>
       </c>
       <c r="J403" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K403" s="4">
-        <v>7.0790000000000006E-2</v>
+        <v>5.3093000000000001E-2</v>
       </c>
       <c r="L403" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M403" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="404" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20196,7 +20199,7 @@
         <v>626</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>990</v>
@@ -20208,22 +20211,22 @@
         <v>0</v>
       </c>
       <c r="I404" s="2" t="s">
-        <v>992</v>
+        <v>583</v>
       </c>
       <c r="J404" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K404" s="4">
-        <v>5.3093000000000001E-2</v>
+        <v>3.5395000000000003E-2</v>
       </c>
       <c r="L404" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M404" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="405" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A405" s="6" t="s">
         <v>13</v>
       </c>
@@ -20237,34 +20240,34 @@
         <v>626</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="F405" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="G405" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="G405" s="1" t="s">
+      <c r="H405" s="3">
+        <v>0</v>
+      </c>
+      <c r="I405" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="H405" s="3">
-        <v>0</v>
-      </c>
-      <c r="I405" s="2" t="s">
-        <v>583</v>
-      </c>
       <c r="J405" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K405" s="4">
-        <v>3.5395000000000003E-2</v>
+        <v>0.106185</v>
       </c>
       <c r="L405" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M405" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="406" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="6" t="s">
         <v>13</v>
       </c>
@@ -20278,7 +20281,7 @@
         <v>626</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>995</v>
@@ -20290,19 +20293,19 @@
         <v>0</v>
       </c>
       <c r="I406" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J406" s="3">
+        <v>3</v>
+      </c>
+      <c r="K406" s="4">
+        <v>2.6546E-2</v>
+      </c>
+      <c r="L406" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="M406" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="J406" s="3">
-        <v>12</v>
-      </c>
-      <c r="K406" s="4">
-        <v>0.106185</v>
-      </c>
-      <c r="L406" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="M406" s="1" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="407" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20319,7 +20322,7 @@
         <v>626</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="F407" s="1" t="s">
         <v>998</v>
@@ -20331,22 +20334,22 @@
         <v>0</v>
       </c>
       <c r="I407" s="2" t="s">
-        <v>136</v>
+        <v>1000</v>
       </c>
       <c r="J407" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K407" s="4">
-        <v>2.6546E-2</v>
+        <v>6.1941000000000003E-2</v>
       </c>
       <c r="L407" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M407" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="408" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
         <v>13</v>
       </c>
@@ -20360,7 +20363,7 @@
         <v>626</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="F408" s="1" t="s">
         <v>1001</v>
@@ -20375,19 +20378,19 @@
         <v>1003</v>
       </c>
       <c r="J408" s="3">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K408" s="4">
-        <v>6.1941000000000003E-2</v>
+        <v>0.212371</v>
       </c>
       <c r="L408" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M408" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="409" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="6" t="s">
         <v>13</v>
       </c>
@@ -20401,7 +20404,7 @@
         <v>626</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="F409" s="1" t="s">
         <v>1004</v>
@@ -20413,19 +20416,19 @@
         <v>0</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>1006</v>
+        <v>635</v>
       </c>
       <c r="J409" s="3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K409" s="4">
-        <v>0.212371</v>
+        <v>3.5395000000000003E-2</v>
       </c>
       <c r="L409" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M409" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="410" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20442,31 +20445,31 @@
         <v>626</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F410" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G410" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="G410" s="1" t="s">
-        <v>1008</v>
-      </c>
       <c r="H410" s="3">
         <v>0</v>
       </c>
       <c r="I410" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="J410" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K410" s="4">
-        <v>3.5395000000000003E-2</v>
+        <v>6.1941000000000003E-2</v>
       </c>
       <c r="L410" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M410" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="411" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20483,31 +20486,31 @@
         <v>626</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
       <c r="H411" s="3">
         <v>0</v>
       </c>
       <c r="I411" s="2" t="s">
-        <v>632</v>
+        <v>989</v>
       </c>
       <c r="J411" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K411" s="4">
-        <v>6.1941000000000003E-2</v>
+        <v>5.3093000000000001E-2</v>
       </c>
       <c r="L411" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M411" s="1" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="412" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20536,22 +20539,22 @@
         <v>0</v>
       </c>
       <c r="I412" s="2" t="s">
-        <v>992</v>
+        <v>583</v>
       </c>
       <c r="J412" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K412" s="4">
-        <v>5.3093000000000001E-2</v>
+        <v>3.5395000000000003E-2</v>
       </c>
       <c r="L412" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M412" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="413" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A413" s="6" t="s">
         <v>13</v>
       </c>
@@ -20568,31 +20571,31 @@
         <v>169</v>
       </c>
       <c r="F413" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="G413" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="G413" s="1" t="s">
+      <c r="H413" s="3">
+        <v>0</v>
+      </c>
+      <c r="I413" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="H413" s="3">
-        <v>0</v>
-      </c>
-      <c r="I413" s="2" t="s">
-        <v>583</v>
-      </c>
       <c r="J413" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K413" s="4">
-        <v>3.5395000000000003E-2</v>
+        <v>0.106185</v>
       </c>
       <c r="L413" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M413" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="414" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="6" t="s">
         <v>13</v>
       </c>
@@ -20618,19 +20621,19 @@
         <v>0</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>997</v>
+        <v>136</v>
       </c>
       <c r="J414" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K414" s="4">
-        <v>0.106185</v>
+        <v>2.6546E-2</v>
       </c>
       <c r="L414" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M414" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="415" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20659,22 +20662,22 @@
         <v>0</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>136</v>
+        <v>1000</v>
       </c>
       <c r="J415" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K415" s="4">
-        <v>2.6546E-2</v>
+        <v>6.1941000000000003E-2</v>
       </c>
       <c r="L415" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M415" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="416" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A416" s="6" t="s">
         <v>13</v>
       </c>
@@ -20703,19 +20706,19 @@
         <v>1003</v>
       </c>
       <c r="J416" s="3">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K416" s="4">
-        <v>6.1941000000000003E-2</v>
+        <v>0.212371</v>
       </c>
       <c r="L416" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M416" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="417" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="6" t="s">
         <v>13</v>
       </c>
@@ -20741,19 +20744,19 @@
         <v>0</v>
       </c>
       <c r="I417" s="2" t="s">
-        <v>1006</v>
+        <v>635</v>
       </c>
       <c r="J417" s="3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K417" s="4">
-        <v>0.212371</v>
+        <v>3.5395000000000003E-2</v>
       </c>
       <c r="L417" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M417" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="418" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20773,28 +20776,28 @@
         <v>169</v>
       </c>
       <c r="F418" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G418" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="G418" s="1" t="s">
-        <v>1008</v>
-      </c>
       <c r="H418" s="3">
         <v>0</v>
       </c>
       <c r="I418" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="J418" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K418" s="4">
-        <v>3.5395000000000003E-2</v>
+        <v>6.1941000000000003E-2</v>
       </c>
       <c r="L418" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M418" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="419" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20808,34 +20811,34 @@
         <v>14</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>626</v>
+        <v>881</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H419" s="3">
         <v>0</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>632</v>
+        <v>1012</v>
       </c>
       <c r="J419" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K419" s="4">
-        <v>6.1941000000000003E-2</v>
+        <v>0.185477</v>
       </c>
       <c r="L419" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M419" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="420" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20849,31 +20852,31 @@
         <v>14</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>884</v>
+        <v>220</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H420" s="3">
         <v>0</v>
       </c>
       <c r="I420" s="2" t="s">
-        <v>1015</v>
+        <v>583</v>
       </c>
       <c r="J420" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K420" s="4">
-        <v>0.185477</v>
+        <v>4.1709999999999997E-2</v>
       </c>
       <c r="L420" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M420" s="1" t="s">
         <v>1016</v>
@@ -20893,7 +20896,7 @@
         <v>220</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F421" s="1" t="s">
         <v>1017</v>
@@ -20905,19 +20908,19 @@
         <v>0</v>
       </c>
       <c r="I421" s="2" t="s">
-        <v>583</v>
+        <v>1019</v>
       </c>
       <c r="J421" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K421" s="4">
-        <v>4.1709999999999997E-2</v>
+        <v>5.2137999999999997E-2</v>
       </c>
       <c r="L421" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M421" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="422" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20931,10 +20934,10 @@
         <v>14</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>220</v>
+        <v>778</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>1020</v>
@@ -20946,19 +20949,19 @@
         <v>0</v>
       </c>
       <c r="I422" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="J422" s="3">
+        <v>4</v>
+      </c>
+      <c r="K422" s="4">
+        <v>5.6883000000000003E-2</v>
+      </c>
+      <c r="L422" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="M422" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="J422" s="3">
-        <v>5</v>
-      </c>
-      <c r="K422" s="4">
-        <v>5.2137999999999997E-2</v>
-      </c>
-      <c r="L422" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="M422" s="1" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="423" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20972,16 +20975,16 @@
         <v>14</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="H423" s="3">
         <v>0</v>
@@ -20996,10 +20999,10 @@
         <v>5.6883000000000003E-2</v>
       </c>
       <c r="L423" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M423" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="424" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21013,22 +21016,22 @@
         <v>14</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H424" s="3">
         <v>0</v>
       </c>
       <c r="I424" s="2" t="s">
-        <v>583</v>
+        <v>362</v>
       </c>
       <c r="J424" s="3">
         <v>4</v>
@@ -21037,10 +21040,10 @@
         <v>5.6883000000000003E-2</v>
       </c>
       <c r="L424" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M424" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="425" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21054,16 +21057,16 @@
         <v>14</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="H425" s="3">
         <v>0</v>
@@ -21078,10 +21081,10 @@
         <v>5.6883000000000003E-2</v>
       </c>
       <c r="L425" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M425" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="426" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21095,34 +21098,34 @@
         <v>14</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>781</v>
+        <v>685</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>142</v>
       </c>
       <c r="F426" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G426" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="G426" s="1" t="s">
+      <c r="H426" s="3">
+        <v>0</v>
+      </c>
+      <c r="I426" s="2" t="s">
         <v>1028</v>
-      </c>
-      <c r="H426" s="3">
-        <v>0</v>
-      </c>
-      <c r="I426" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="J426" s="3">
         <v>4</v>
       </c>
       <c r="K426" s="4">
-        <v>5.6883000000000003E-2</v>
+        <v>8.4700000000000001E-3</v>
       </c>
       <c r="L426" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M426" s="1" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="427" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21139,19 +21142,19 @@
         <v>685</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H427" s="3">
         <v>0</v>
       </c>
       <c r="I427" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="J427" s="3">
         <v>4</v>
@@ -21160,10 +21163,10 @@
         <v>8.4700000000000001E-3</v>
       </c>
       <c r="L427" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M427" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="428" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21180,7 +21183,7 @@
         <v>685</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F428" s="1" t="s">
         <v>1033</v>
@@ -21195,16 +21198,16 @@
         <v>1035</v>
       </c>
       <c r="J428" s="3">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="K428" s="4">
-        <v>8.4700000000000001E-3</v>
+        <v>5.5056000000000001E-2</v>
       </c>
       <c r="L428" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M428" s="1" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
     </row>
   </sheetData>
